--- a/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/201782.xlsx
+++ b/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/201782.xlsx
@@ -458,182 +458,182 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>W_Beoordelen fraude-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>O_SELECTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-START</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACTIVATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>A_APPROVED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-COMPLETE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>A_PARTLYSUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-START</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-START</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>A_SUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>A_REGISTERED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT_BACK-COMPLETE</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-START</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-START</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>O_CREATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>O_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>W_Wijzigen contractgegevens-SCHEDULE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>A_SUBMITTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>A_PREACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>A_FINALIZED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>O_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>A_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>A_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>O_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>W_Nabellen offertes-SCHEDULE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-START</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>A_FINALIZED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>W_Valideren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>O_SELECTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-START</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>A_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-COMPLETE</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>A_APPROVED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-COMPLETE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>O_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-COMPLETE</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>A_PREACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>O_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-START</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACTIVATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>O_CREATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>A_REGISTERED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>A_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-START</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>O_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT_BACK-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>A_PARTLYSUBMITTED-COMPLETE</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="3" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="3" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="2" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="3" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1393,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="3" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -1478,13 +1478,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="2" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="3" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1605,13 +1605,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1653,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="3" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
@@ -1756,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="2" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="2" t="n">
         <v>0</v>
@@ -1801,13 +1801,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="3" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1865,13 +1865,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -1928,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="3" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -1998,13 +1998,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="2" t="n">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="2" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="3" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2125,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -2173,10 +2173,10 @@
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -2188,13 +2188,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="3" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>0</v>
@@ -2258,13 +2258,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="2" t="n">
         <v>0</v>
@@ -2297,10 +2297,10 @@
         <v>0</v>
       </c>
       <c r="AB14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="2" t="n">
         <v>0</v>
@@ -2321,13 +2321,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="3" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -2385,13 +2385,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -2424,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -2436,25 +2436,25 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="3" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>1</v>
@@ -2518,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="2" t="n">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="AB16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="2" t="n">
         <v>0</v>
@@ -2581,13 +2581,13 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="3" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
@@ -2645,13 +2645,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2663,10 +2663,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -2702,19 +2702,19 @@
         <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="3" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>1</v>
@@ -2778,13 +2778,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
@@ -2796,13 +2796,13 @@
         <v>0</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="2" t="n">
         <v>0</v>
@@ -2814,13 +2814,13 @@
         <v>1</v>
       </c>
       <c r="AA18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="2" t="n">
         <v>0</v>
@@ -2841,13 +2841,13 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="3" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -2905,13 +2905,13 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2920,40 +2920,40 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" t="n">
         <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
@@ -2968,13 +2968,13 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="3" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>0</v>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2" t="n">
         <v>1</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
@@ -3056,13 +3056,13 @@
         <v>0</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="2" t="n">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>1</v>
       </c>
       <c r="AA20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20" s="2" t="n">
         <v>0</v>
@@ -3101,13 +3101,13 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="3" t="inlineStr">
         <is>
@@ -3135,22 +3135,22 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -3165,13 +3165,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3183,13 +3183,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>1</v>
       </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -3228,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
         <v>1</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="3" t="inlineStr">
         <is>
@@ -3268,13 +3268,13 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="2" t="n">
         <v>1</v>
@@ -3298,13 +3298,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" s="2" t="n">
         <v>0</v>
@@ -3334,13 +3334,13 @@
         <v>1</v>
       </c>
       <c r="AA22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22" s="2" t="n">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="AL22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="3" t="inlineStr">
         <is>
@@ -3395,13 +3395,13 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -3410,13 +3410,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -3425,13 +3425,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3443,13 +3443,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -3461,19 +3461,19 @@
         <v>1</v>
       </c>
       <c r="AA23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="3" t="inlineStr">
         <is>
@@ -3528,22 +3528,22 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2" t="n">
         <v>1</v>
@@ -3558,13 +3558,13 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>0</v>
@@ -3576,13 +3576,13 @@
         <v>0</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="2" t="n">
         <v>0</v>
@@ -3594,16 +3594,16 @@
         <v>1</v>
       </c>
       <c r="AA24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="2" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="AL24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="3" t="inlineStr">
         <is>
@@ -3655,22 +3655,22 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -3682,16 +3682,16 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3703,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -3721,19 +3721,19 @@
         <v>1</v>
       </c>
       <c r="AA25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="3" t="inlineStr">
         <is>
@@ -3788,22 +3788,22 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2" t="n">
         <v>1</v>
@@ -3815,16 +3815,16 @@
         <v>0</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
@@ -3836,16 +3836,16 @@
         <v>0</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="2" t="n">
         <v>0</v>
@@ -3854,16 +3854,16 @@
         <v>1</v>
       </c>
       <c r="AA26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="2" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="AL26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="3" t="inlineStr">
         <is>
@@ -3915,43 +3915,43 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -3963,16 +3963,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -3981,16 +3981,16 @@
         <v>1</v>
       </c>
       <c r="AA27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
         <v>1</v>
@@ -4014,7 +4014,7 @@
         <v>1</v>
       </c>
       <c r="AL27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="3" t="inlineStr">
         <is>
@@ -4048,22 +4048,22 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2" t="n">
         <v>1</v>
@@ -4078,13 +4078,13 @@
         <v>1</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
@@ -4096,16 +4096,16 @@
         <v>0</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="2" t="n">
         <v>0</v>
@@ -4117,13 +4117,13 @@
         <v>1</v>
       </c>
       <c r="AB28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="2" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="AL28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="3" t="inlineStr">
         <is>
@@ -4169,28 +4169,28 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
@@ -4205,13 +4205,13 @@
         <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4223,19 +4223,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29" t="n">
         <v>1</v>
@@ -4244,13 +4244,13 @@
         <v>1</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -4274,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="AL29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="3" t="inlineStr">
         <is>
@@ -4308,22 +4308,22 @@
         <v>1</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2" t="n">
         <v>1</v>
@@ -4335,16 +4335,16 @@
         <v>0</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
@@ -4356,16 +4356,16 @@
         <v>0</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="2" t="n">
         <v>0</v>
@@ -4377,13 +4377,13 @@
         <v>1</v>
       </c>
       <c r="AB30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="2" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="AL30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="3" t="inlineStr">
         <is>
@@ -4435,22 +4435,22 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
@@ -4462,16 +4462,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4483,19 +4483,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31" t="n">
         <v>1</v>
@@ -4504,16 +4504,16 @@
         <v>1</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI31" t="n">
         <v>0</v>
@@ -4534,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="AL31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="3" t="inlineStr">
         <is>
@@ -4568,22 +4568,22 @@
         <v>1</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="2" t="n">
         <v>1</v>
@@ -4595,16 +4595,16 @@
         <v>0</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
@@ -4613,19 +4613,19 @@
         <v>0</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="2" t="n">
         <v>0</v>
@@ -4637,13 +4637,13 @@
         <v>1</v>
       </c>
       <c r="AB32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="2" t="n">
         <v>0</v>
@@ -4658,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="AI32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ32" s="2" t="n">
         <v>1</v>
@@ -4667,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="AL32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="3" t="inlineStr">
         <is>
@@ -4695,13 +4695,13 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
@@ -4722,16 +4722,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4740,19 +4740,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -4764,13 +4764,13 @@
         <v>1</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
         <v>1</v>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33" t="n">
         <v>1</v>
@@ -4794,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="AL33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="3" t="inlineStr">
         <is>
@@ -4828,22 +4828,22 @@
         <v>1</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="2" t="n">
         <v>1</v>
@@ -4855,16 +4855,16 @@
         <v>0</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>0</v>
@@ -4873,19 +4873,19 @@
         <v>0</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="2" t="n">
         <v>0</v>
@@ -4897,13 +4897,13 @@
         <v>1</v>
       </c>
       <c r="AB34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="2" t="n">
         <v>0</v>
@@ -4918,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="2" t="n">
         <v>1</v>
@@ -4927,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="AL34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="3" t="inlineStr">
         <is>
@@ -4949,49 +4949,49 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5000,19 +5000,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -5024,19 +5024,19 @@
         <v>1</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG35" t="n">
         <v>1</v>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="AI35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ35" t="n">
         <v>1</v>
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="AL35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="3" t="inlineStr">
         <is>
@@ -5088,22 +5088,22 @@
         <v>1</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="2" t="n">
         <v>1</v>
@@ -5118,13 +5118,13 @@
         <v>2</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="2" t="n">
         <v>0</v>
@@ -5133,37 +5133,37 @@
         <v>0</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA36" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="2" t="n">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="2" t="n">
         <v>1</v>
@@ -5187,7 +5187,7 @@
         <v>1</v>
       </c>
       <c r="AL36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="3" t="inlineStr">
         <is>
@@ -5209,34 +5209,34 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -5245,13 +5245,13 @@
         <v>2</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5260,43 +5260,43 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA37" t="n">
         <v>2</v>
       </c>
-      <c r="Y37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>1</v>
-      </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG37" t="n">
         <v>1</v>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="AI37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" t="n">
         <v>1</v>
@@ -5314,7 +5314,7 @@
         <v>1</v>
       </c>
       <c r="AL37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="3" t="inlineStr">
         <is>
@@ -5348,22 +5348,22 @@
         <v>1</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="2" t="n">
         <v>1</v>
@@ -5378,13 +5378,13 @@
         <v>2</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>0</v>
@@ -5393,37 +5393,37 @@
         <v>0</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA38" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="2" t="n">
         <v>0</v>
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="AI38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ38" s="2" t="n">
         <v>1</v>
@@ -5475,22 +5475,22 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -5505,13 +5505,13 @@
         <v>2</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5520,19 +5520,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -5541,31 +5541,31 @@
         <v>1</v>
       </c>
       <c r="AA39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE39" t="n">
         <v>0</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG39" t="n">
         <v>1</v>
       </c>
       <c r="AH39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ39" t="n">
         <v>1</v>
@@ -5608,7 +5608,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>0</v>
@@ -5617,13 +5617,13 @@
         <v>1</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="2" t="n">
         <v>1</v>
@@ -5638,13 +5638,13 @@
         <v>2</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="2" t="n">
         <v>0</v>
@@ -5653,37 +5653,37 @@
         <v>0</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="2" t="n">
         <v>0</v>
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="AI40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ40" s="2" t="n">
         <v>1</v>
@@ -5729,13 +5729,13 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -5744,13 +5744,13 @@
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
@@ -5765,13 +5765,13 @@
         <v>2</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -5780,43 +5780,43 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA41" t="n">
         <v>2</v>
       </c>
-      <c r="Y41" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>1</v>
-      </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG41" t="n">
         <v>1</v>
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="AI41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ41" t="n">
         <v>1</v>
@@ -5868,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>0</v>
@@ -5880,10 +5880,10 @@
         <v>1</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="2" t="n">
         <v>1</v>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="2" t="n">
         <v>0</v>
@@ -5913,37 +5913,37 @@
         <v>0</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y42" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA42" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="2" t="n">
         <v>0</v>
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="AI42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ42" s="2" t="n">
         <v>1</v>
@@ -5995,7 +5995,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -6007,10 +6007,10 @@
         <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>1</v>
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6040,37 +6040,37 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA43" t="n">
         <v>2</v>
       </c>
-      <c r="Y43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>1</v>
-      </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="n">
         <v>1</v>
@@ -6085,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="AI43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ43" t="n">
         <v>1</v>
@@ -6128,7 +6128,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>0</v>
@@ -6140,10 +6140,10 @@
         <v>1</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="2" t="n">
         <v>1</v>
@@ -6164,46 +6164,46 @@
         <v>0</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="T44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA44" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="2" t="n">
         <v>0</v>
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="AI44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ44" s="2" t="n">
         <v>1</v>
@@ -6255,7 +6255,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -6267,10 +6267,10 @@
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>1</v>
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>2</v>
@@ -6291,40 +6291,40 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA45" t="n">
         <v>2</v>
       </c>
-      <c r="Y45" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>1</v>
-      </c>
       <c r="AB45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC45" t="n">
         <v>1</v>
@@ -6345,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="AI45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ45" t="n">
         <v>1</v>
@@ -6388,7 +6388,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>0</v>
@@ -6400,10 +6400,10 @@
         <v>1</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2" t="n">
         <v>1</v>
@@ -6424,46 +6424,46 @@
         <v>0</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y46" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z46" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA46" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC46" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46" s="2" t="n">
         <v>0</v>
@@ -6478,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="AI46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ46" s="2" t="n">
         <v>1</v>
@@ -6515,7 +6515,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -6527,10 +6527,10 @@
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
@@ -6539,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>2</v>
@@ -6551,40 +6551,40 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA47" t="n">
         <v>2</v>
       </c>
-      <c r="W47" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>1</v>
-      </c>
       <c r="AB47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC47" t="n">
         <v>1</v>
@@ -6602,10 +6602,10 @@
         <v>1</v>
       </c>
       <c r="AH47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ47" t="n">
         <v>1</v>
@@ -6621,9 +6621,9 @@
           <t>deviant</t>
         </is>
       </c>
-      <c r="AN47" t="inlineStr">
-        <is>
-          <t>regular</t>
+      <c r="AN47" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
@@ -6663,7 +6663,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="2" t="n">
         <v>1</v>
@@ -6684,46 +6684,46 @@
         <v>0</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA48" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC48" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE48" s="2" t="n">
         <v>0</v>
@@ -6738,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="AI48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ48" s="2" t="n">
         <v>1</v>
@@ -6790,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -6799,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>2</v>
@@ -6811,40 +6811,40 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA49" t="n">
         <v>2</v>
       </c>
-      <c r="W49" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>1</v>
-      </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC49" t="n">
         <v>1</v>
@@ -6862,10 +6862,10 @@
         <v>1</v>
       </c>
       <c r="AH49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ49" t="n">
         <v>1</v>
